--- a/res/page/统计分析/报表管理/HandoverReportPage.xlsx
+++ b/res/page/统计分析/报表管理/HandoverReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>别名</t>
   </si>
@@ -69,7 +69,25 @@
     <t>记录列表</t>
   </si>
   <si>
-    <t>//div[@id='reportShiftTable']</t>
+    <t>//div[contains(@id,'table-cache')]</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>//i[@class='ion-ios-search-strong']</t>
+  </si>
+  <si>
+    <t>选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline']/span[1]//i</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>//ul[@id='tableTree']</t>
   </si>
 </sst>
 </file>
@@ -77,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,7 +117,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,8 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,30 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,77 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +275,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,139 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +484,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -477,6 +534,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,67 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -1094,7 +1112,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="27" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1180,6 +1198,39 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/统计分析/报表管理/HandoverReportPage.xlsx
+++ b/res/page/统计分析/报表管理/HandoverReportPage.xlsx
@@ -57,7 +57,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认')or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -275,6 +275,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,6 +305,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,6 +323,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,24 +359,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,25 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,6 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,61 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/HandoverReportPage.xlsx
+++ b/res/page/统计分析/报表管理/HandoverReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>交接班记录</t>
   </si>
   <si>
-    <t>//div[@class='finance-report']//span[text()='交接班记录']</t>
+    <t>//div[@class='main-wrapper']//span[text()='交接班记录']</t>
   </si>
   <si>
     <t>导出</t>
@@ -57,7 +57,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,17 +117,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,46 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,17 +224,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,31 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,21 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,45 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,26 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +517,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -589,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/HandoverReportPage.xlsx
+++ b/res/page/统计分析/报表管理/HandoverReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>交接班记录</t>
   </si>
   <si>
-    <t>//div[@class='finance-report']//span[text()='交接班记录']</t>
+    <t>//div[@class='main-wrapper']//span[text()='交接班记录']</t>
   </si>
   <si>
     <t>导出</t>
@@ -116,13 +116,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -239,22 +232,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +275,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,66 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,96 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
